--- a/documents/Published/GanttChart/GanttChartByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/GanttChart/GanttChartByMAQSoftwareChecklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualWork\documents\Published\GanttChart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab_PowerBIVisuals\documents\Published\GanttChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F8C838-22C5-4479-9DB2-45032DE49A69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA58B80-51A9-4C18-850D-94067E8758E1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{15650058-D9E1-4E2D-A421-D272244BB495}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="113">
   <si>
     <r>
       <t>#</t>
@@ -493,21 +493,6 @@
 3. Go to 'Bar Formatting'
 4. Update 'Color' for all bars
  </t>
-  </si>
-  <si>
-    <t>Enable Hierarchy layout</t>
-  </si>
-  <si>
-    <t>Hierarchy is enabled for Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Go to 'Formatting pane'
-2.  Go to 'Column labels'
-3. Enable toggle for 'Hierarchial layout'
- </t>
-  </si>
-  <si>
-    <t>1.Hierarchial layout is enabled for Categories</t>
   </si>
   <si>
     <t>1. Legends for 'ProjectName' will appear
@@ -1023,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD304B0-4792-43AB-9D20-CD62C2AB01B6}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,52 +1555,35 @@
         <v>107</v>
       </c>
       <c r="E20" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>16</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" t="s">
-        <v>91</v>
-      </c>
-      <c r="H22" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" t="s">
         <v>91</v>
       </c>
     </row>
